--- a/중앙쇼핑몰 요구사항명세서1.xlsx
+++ b/중앙쇼핑몰 요구사항명세서1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10110" tabRatio="773"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10110" tabRatio="773" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1.회원관리" sheetId="1" r:id="rId1"/>
@@ -559,10 +559,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2.2.4 상품문의 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2.3.5 상품문의 삭제</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -588,6 +584,10 @@
   </si>
   <si>
     <t>개요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4 상품문의 수정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -832,152 +832,158 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,333 +1278,333 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="17.21875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1">
+      <c r="A1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1">
+      <c r="A2" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
-      <c r="A4" s="10" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" s="21" customFormat="1">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" s="23" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
+      <c r="D5" s="24"/>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="31" t="s">
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="42"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15">
+      <c r="D6" s="24"/>
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="50"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="31" t="s">
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="42"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15">
+      <c r="D7" s="24"/>
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="31" t="s">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="42"/>
+      <c r="B8" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
+      <c r="D8" s="24"/>
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="11" t="s">
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="42"/>
+      <c r="B9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="50"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="31" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="42"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="50"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="31" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="42"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="50"/>
-      <c r="B12" s="11" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="42"/>
+      <c r="B12" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="50"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="31" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="42"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="50"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="31" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="42"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="50"/>
-      <c r="B15" s="11" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="42"/>
+      <c r="B15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="48"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="31" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="43"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="31" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="31" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="16"/>
-      <c r="B20" s="31" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="37"/>
+      <c r="B20" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="37"/>
+      <c r="B21" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="31" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="37"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="31" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="37"/>
+      <c r="B24" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="31" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="37"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="31" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5">
-      <c r="A27" s="16"/>
-      <c r="B27" s="11" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="37"/>
+      <c r="B27" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5">
-      <c r="A28" s="17"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="31" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="38"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:F4"/>
@@ -1628,7 +1634,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.5"/>
@@ -1643,357 +1649,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="46"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="46"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="46"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="46"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="46"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="16.5">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="16.5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="19"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="16.5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="41"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="41"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="16.5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="16.5">
-      <c r="A28" s="41"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5">
+      <c r="A29" s="46"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
+      <c r="A30" s="46"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="A31" s="46"/>
+      <c r="B31" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5">
-      <c r="A29" s="41"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="41"/>
-      <c r="B31" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="22" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="22"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:F4"/>
@@ -2032,349 +2038,349 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="19"/>
+    <col min="1" max="1" width="17.21875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1">
+      <c r="A1" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" s="35" customFormat="1">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1">
+      <c r="A2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" s="35" customFormat="1">
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" s="37" customFormat="1">
-      <c r="A4" s="10" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" s="21" customFormat="1">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" s="23" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="38"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="38"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="38"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="38"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="38"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="41"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="43"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="43"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="43"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="43"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="43"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="43"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="43"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:F4"/>
@@ -2405,381 +2411,386 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="19"/>
+    <col min="1" max="1" width="17.21875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1">
+      <c r="A1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" s="35" customFormat="1">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1">
+      <c r="A2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" s="35" customFormat="1">
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" s="37" customFormat="1">
-      <c r="A4" s="10" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" s="21" customFormat="1">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" s="23" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="30" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="22"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="22" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:F4"/>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B33"/>
@@ -2793,11 +2804,6 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2826,226 +2832,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="16.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="46"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="46"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="46"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="46"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="16.350000000000001" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="55" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="55" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="55" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="24"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="22" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:F4"/>
@@ -3072,75 +3078,75 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="19"/>
+    <col min="1" max="1" width="17.21875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1">
+      <c r="A1" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" s="35" customFormat="1">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1">
+      <c r="A2" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" s="35" customFormat="1">
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:6" s="37" customFormat="1">
-      <c r="A4" s="10" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" s="21" customFormat="1">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" s="23" customFormat="1">
+      <c r="A4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:F4"/>
